--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>_id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>穿戴一件装备</t>
+  </si>
+  <si>
+    <t>闯过50关</t>
   </si>
   <si>
     <t>闯过第100关</t>
@@ -1075,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K11"/>
+  <dimension ref="C3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1229,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>10000</v>
@@ -1238,7 +1241,7 @@
         <v>10000</v>
       </c>
       <c r="H8" s="1">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1252,16 +1255,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>401</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -1272,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1292,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1305,6 +1314,26 @@
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>_id</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>包裹界面设置回收</t>
+  </si>
+  <si>
+    <t>学习技能</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K12"/>
+  <dimension ref="C3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1332,8 +1335,34 @@
       <c r="G12" s="1">
         <v>10000</v>
       </c>
+      <c r="H12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>_id</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>学习技能</t>
+  </si>
+  <si>
+    <t>闯过第1000关</t>
+  </si>
+  <si>
+    <t>闯过第2000关</t>
+  </si>
+  <si>
+    <t>闯过第5000关</t>
   </si>
 </sst>
 </file>
@@ -291,12 +300,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1081,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K13"/>
+  <dimension ref="C3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1365,6 +1374,84 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2002</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3003</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 D5 E5:F5 G5 H5:K5 C3:C5" errorStyle="warning">

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>_id</t>
   </si>
@@ -73,6 +73,9 @@
     <t>RewardTypeList</t>
   </si>
   <si>
+    <t>QuanlityList</t>
+  </si>
+  <si>
     <t>Memo</t>
   </si>
   <si>
@@ -122,6 +125,36 @@
   </si>
   <si>
     <t>闯过第5000关</t>
+  </si>
+  <si>
+    <t>闯过10w关</t>
+  </si>
+  <si>
+    <t>闯过20w关</t>
+  </si>
+  <si>
+    <t>闯过30w关</t>
+  </si>
+  <si>
+    <t>闯过40w关</t>
+  </si>
+  <si>
+    <t>闯过50w关</t>
+  </si>
+  <si>
+    <t>闯过60w关</t>
+  </si>
+  <si>
+    <t>闯过70w关</t>
+  </si>
+  <si>
+    <t>闯过80w关</t>
+  </si>
+  <si>
+    <t>闯过90w关</t>
+  </si>
+  <si>
+    <t>闯过100w关</t>
   </si>
 </sst>
 </file>
@@ -300,12 +333,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1090,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K16"/>
+  <dimension ref="C3:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1104,12 +1137,12 @@
     <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:12">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1134,11 +1167,14 @@
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="3:11">
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1161,36 +1197,42 @@
       <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="3:11">
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="3:10">
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1212,11 +1254,14 @@
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1232,11 +1277,11 @@
       <c r="G7" s="1">
         <v>10000</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1258,11 +1303,14 @@
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1284,11 +1332,14 @@
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1304,11 +1355,11 @@
       <c r="G10" s="1">
         <v>10000</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1324,11 +1375,11 @@
       <c r="G11" s="1">
         <v>10000</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1350,11 +1401,14 @@
       <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1370,11 +1424,11 @@
       <c r="G13" s="1">
         <v>10000</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="K13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1396,11 +1450,14 @@
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1422,11 +1479,14 @@
       <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1448,13 +1508,306 @@
       <c r="I16" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>23</v>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>100</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>100</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>400000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>100</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>600000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>100</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>700000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>100</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>100</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>100</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>100</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 D5 E5:F5 G5 H5:K5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 D4 E4 F4 G4 H4 I4 J4 K4 L4 D5 E5:F5 G5 H5:I5 J5 K5:L5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -94,37 +94,37 @@
     <t>string</t>
   </si>
   <si>
+    <t>闯过第2关</t>
+  </si>
+  <si>
+    <t>穿戴一件装备</t>
+  </si>
+  <si>
+    <t>闯过5关</t>
+  </si>
+  <si>
     <t>闯过第10关</t>
   </si>
   <si>
-    <t>穿戴一件装备</t>
-  </si>
-  <si>
-    <t>闯过50关</t>
+    <t>强化一次</t>
+  </si>
+  <si>
+    <t>挑战一次副本</t>
+  </si>
+  <si>
+    <t>包裹界面设置回收</t>
+  </si>
+  <si>
+    <t>学习技能</t>
   </si>
   <si>
     <t>闯过第100关</t>
   </si>
   <si>
-    <t>强化一次</t>
-  </si>
-  <si>
-    <t>挑战一次副本</t>
-  </si>
-  <si>
-    <t>包裹界面设置回收</t>
-  </si>
-  <si>
-    <t>学习技能</t>
-  </si>
-  <si>
-    <t>闯过第1000关</t>
-  </si>
-  <si>
-    <t>闯过第2000关</t>
-  </si>
-  <si>
-    <t>闯过第5000关</t>
+    <t>闯过第200关</t>
+  </si>
+  <si>
+    <t>闯过第500关</t>
   </si>
   <si>
     <t>闯过10w关</t>
@@ -1126,7 +1126,7 @@
   <dimension ref="C3:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>10000</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
         <v>10000</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>10000</v>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1">
         <v>10000</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1">
         <v>10000</v>
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F16" s="1">
         <v>10000</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -160,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1126,7 +1139,7 @@
   <dimension ref="C3:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1535,7 +1548,7 @@
         <v>4003</v>
       </c>
       <c r="I17" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1">
         <v>100</v>
@@ -1564,7 +1577,7 @@
         <v>4003</v>
       </c>
       <c r="I18" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1">
         <v>100</v>
@@ -1593,7 +1606,7 @@
         <v>4003</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1">
         <v>100</v>
@@ -1622,7 +1635,7 @@
         <v>4003</v>
       </c>
       <c r="I20" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1">
         <v>100</v>
@@ -1651,7 +1664,7 @@
         <v>4003</v>
       </c>
       <c r="I21" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1">
         <v>100</v>
@@ -1680,7 +1693,7 @@
         <v>4003</v>
       </c>
       <c r="I22" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J22" s="1">
         <v>100</v>
@@ -1709,7 +1722,7 @@
         <v>4003</v>
       </c>
       <c r="I23" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1">
         <v>100</v>
@@ -1738,7 +1751,7 @@
         <v>4003</v>
       </c>
       <c r="I24" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1">
         <v>100</v>
@@ -1767,7 +1780,7 @@
         <v>4003</v>
       </c>
       <c r="I25" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1">
         <v>100</v>
@@ -1796,7 +1809,7 @@
         <v>4003</v>
       </c>
       <c r="I26" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J26" s="1">
         <v>100</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>_id</t>
   </si>
@@ -92,6 +92,9 @@
     <t>Memo</t>
   </si>
   <si>
+    <t>Sort</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>闯过100w关</t>
+  </si>
+  <si>
+    <t>设置-其他界面，绑定帐号并且存档</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:L26"/>
+  <dimension ref="C3:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1152,7 +1158,8 @@
     <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
     <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="19.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
@@ -1183,11 +1190,13 @@
       <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="3:12">
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1213,39 +1222,43 @@
       <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="3:11">
+    </row>
+    <row r="6" spans="3:12">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1271,10 +1284,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1291,10 +1307,13 @@
         <v>10000</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1320,10 +1339,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1349,10 +1371,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1369,10 +1394,13 @@
         <v>10000</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1389,10 +1417,13 @@
         <v>10000</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1418,10 +1449,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1438,10 +1472,13 @@
         <v>10000</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1467,10 +1504,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11">
+        <v>23</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1496,10 +1536,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1525,10 +1568,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1554,10 +1600,13 @@
         <v>100</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1583,10 +1632,13 @@
         <v>100</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1612,10 +1664,13 @@
         <v>100</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
+        <v>28</v>
+      </c>
+      <c r="L19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1641,10 +1696,13 @@
         <v>100</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1670,10 +1728,13 @@
         <v>100</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1699,10 +1760,13 @@
         <v>100</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
+        <v>31</v>
+      </c>
+      <c r="L22" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1728,10 +1792,13 @@
         <v>100</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="L23" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1757,10 +1824,13 @@
         <v>100</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1786,10 +1856,13 @@
         <v>100</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
+        <v>34</v>
+      </c>
+      <c r="L25" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1815,7 +1888,42 @@
         <v>100</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="L26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I27" s="1">
+        <v>9</v>
+      </c>
+      <c r="J27" s="1">
+        <v>100</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
